--- a/NCAA/Men/Tennis.xlsx
+++ b/NCAA/Men/Tennis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalrauts\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dengjiahao\Desktop\Athlete\NCAA\Men\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD83732-F873-4285-B64F-264F9BB4BA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D13794A-0E55-4517-A421-7BBB70DB1BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="8">
+  <si>
+    <t>MWC Tournament  Champion</t>
+  </si>
   <si>
     <t>NCAA- Teams</t>
   </si>
@@ -33,7 +36,7 @@
     <t>NCAA-Standing</t>
   </si>
   <si>
-    <t>MWC Tournament  Champion</t>
+    <t xml:space="preserve">Total Number of Rounds </t>
   </si>
   <si>
     <t xml:space="preserve">Grinnell College </t>
@@ -45,23 +48,24 @@
     <t xml:space="preserve">Ripon College </t>
   </si>
   <si>
-    <t xml:space="preserve">2nd Roud </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st Round </t>
-  </si>
-  <si>
-    <t>2nd Round</t>
+    <t>Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,8 +91,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,321 +374,399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2024</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2023</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2022</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2021</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>2020</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2019</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>2018</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>2017</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>2016</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>2015</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>2014</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>2013</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>2012</v>
       </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>2011</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>2010</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>2009</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>2008</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>2007</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>2006</v>
       </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>2005</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>2004</v>
       </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>2003</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
